--- a/output/CU_2025_WOF_PLOT_t3_upload.xlsx
+++ b/output/CU_2025_WOF_PLOT_t3_upload.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pth7\Documents\Intercrop JLJ\2025_winter\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3F30BE0-8A15-4E6A-BA5D-9514359BA54E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE607CCD-1D16-46B7-B161-40171783C61B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{1C6135A8-B703-4F76-8581-563743FF239D}"/>
+    <workbookView xWindow="2772" yWindow="17172" windowWidth="23256" windowHeight="12456" xr2:uid="{1C6135A8-B703-4F76-8581-563743FF239D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -559,8 +559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A084683D-4DF7-4D07-9839-AB5B6AD04B21}">
   <dimension ref="A1:Z15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1:N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -570,7 +570,7 @@
     <col min="3" max="3" width="20.42578125" customWidth="1"/>
     <col min="4" max="4" width="4.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="78.85546875" customWidth="1"/>
+    <col min="6" max="6" width="89.42578125" customWidth="1"/>
     <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
